--- a/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/certs-chain_test.xlsx
+++ b/regress/manual/lib/libgfarm/gfarm/tls-test/test-specs-JP/certs-chain_test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\Desktop\work\gfarm\documents\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosuga\Desktop\gfarm-tls\documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="試験環境" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="1-3証明書チェーン(両側認証)" sheetId="3" r:id="rId4"/>
     <sheet name="1-4証明書チェーン(server認証)" sheetId="4" r:id="rId5"/>
     <sheet name="1-5証明書チェーン(server認証)" sheetId="5" r:id="rId6"/>
+    <sheet name="1-6end-entity証明書とチェーンの証明書の分離" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="282">
   <si>
     <r>
       <rPr>
@@ -10767,6 +10768,33 @@
   </si>
   <si>
     <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_file=test_dir/A/client/client.crt --tls_key_file=test_dir/A/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
       <t>server</t>
     </r>
     <r>
@@ -10829,12 +10857,80 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>./tls-test -s --tls_certificate_chain_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+      <t>./tls-test -s --tls_certificate_chain_file=test_dir/A/server/server_cat_1.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --build_chain --allow_no_crl</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-&gt;client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の順番で以下のコマンドを実行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
       <t>client</t>
     </r>
     <r>
@@ -10856,12 +10952,66 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>./tls-test --tls_certificate_file=test_dir/A/client/client.crt --tls_key_file=test_dir/A/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_all.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2_1.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
       <t>server</t>
     </r>
     <r>
@@ -10924,12 +11074,66 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>./tls-test -s --tls_certificate_chain_file=test_dir/A/server/server_cat_1.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --build_chain --allow_no_crl</t>
+      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_all --mutual_authentication --allow_no_crl</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_file=test_dir/B/client/client.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_1.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
       <t>server</t>
     </r>
     <r>
@@ -10947,7 +11151,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>-&gt;client</t>
@@ -10968,7 +11172,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>server</t>
@@ -10989,7 +11193,292 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_root --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_all.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A_B/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-&gt;client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の順番で以下のコマンドを実行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_root --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2_1.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A_B/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-&gt;client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の順番で以下のコマンドを実行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_root_1 --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A_B/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-&gt;client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の順番で以下のコマンドを実行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_all --mutual_authentication --allow_no_crl</t>
@@ -11016,634 +11505,10 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_all.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2_1.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-&gt;client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側の順番で以下のコマンドを実行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_file=test_dir/B/client/client.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_1.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-&gt;client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側の順番で以下のコマンドを実行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_root --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_all.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A_B/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-&gt;client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側の順番で以下のコマンドを実行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_root --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2_1.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A_B/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-&gt;client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側の順番で以下のコマンドを実行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_root_1 --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test --tls_certificate_chain_file=test_dir/B/client/client_cat_3_2.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A_B/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-&gt;client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側の順番で以下のコマンドを実行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
       <t>./tls-test --tls_certificate_file=test_dir/B/client/client.crt --tls_key_file=test_dir/B/client/client.key --tls_ca_certificate_path=test_dir/A_B/cacerts_all --mutual_authentication --allow_no_crl</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>側</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>-&gt;client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側の順番で以下のコマンドを実行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>server</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">側
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>./tls-test -s --tls_certificate_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/B/cacerts_root --mutual_authentication --allow_no_crl</t>
     </r>
     <phoneticPr fontId="4"/>
   </si>
@@ -14477,6 +14342,1419 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>-&gt;client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の順番で以下のコマンドを実行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>./tls-test -s --tls_certificate_chain_file=test_dir/A/server/server.crt --tls_key_file=test_dir/A/server/server.key --tls_ca_certificate_path=test_dir/A/cacerts_all --mutual_authentication --allow_no_crl</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1-6-1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>client に --tls_certificate_chain_file を指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server:B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client:A</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>不順の証明書
+clientの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中間認証局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3~1の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書が結合している</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(不順の証明書)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の全ての証明書を指定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書を指定</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1-6-2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1-6-3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歯抜けの場合、対向の ca ptah にはすべての証明書が必要。下記参照。
+https://sraphc.sra.co.jp/redmine/gfarm-tls/projects/gfarm-tls/wiki/Self-signed-cert-cat#217-client-3-1-server-%E3%81%AB-CApath-cacerts_root_2-%E6%8C%87%E5%AE%9A-%E3%82%A8%E3%83%A9%E3%83%BC-unable-to-get-local-issuer-certificate</t>
+    <rPh sb="0" eb="2">
+      <t>ハヌ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイコウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ショウメイショ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>server に --tls_certificate_chain_file を指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server:B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client:A</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1-6-4</t>
+  </si>
+  <si>
+    <t>1-6-5</t>
+  </si>
+  <si>
+    <t>1-6-6</t>
+  </si>
+  <si>
+    <r>
+      <t>順番通りの証明書
+serverの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中間認証局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2~1の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書が結合している</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(順番通りの証明書)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">証明書を指定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側の全ての証明書を指定</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不順の証明書
+serverの中間認証局2~1の証明書が結合している(不順の証明書)
+clientのCApathにはB側のroot証明書を指定
+serverのCApathにはA側の全ての証明書を指定</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>歯抜け証明書
+clientの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中間認証局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3,1の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書が結合している</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(歯抜け証明書)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の全ての証明書を指定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全ての証明書を指定</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歯抜け証明書
+serverの中間認証局1の証明書が結合している(歯抜け証明書)
+clientのCApathにはB側の全ての証明書を指定
+serverのCApathにはA側の全ての証明書を指定</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>client, server に --tls_certificate_chain_file を指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server:B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client:A</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>順番通りの証明書
+clientの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中間認証局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3~1の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書が結合している</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(順番通りの証明書)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">側の全ての証明書を指定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書を指定</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>順番通りの証明書
+clientの中間認証局3~1の証明書が結合している(順番通りの証明書)
+serverの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中間認証局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2~1の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書が結合している</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(順番通りの証明書)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">証明書を指定
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>CApath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>側の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>root</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>証明書を指定</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>不順の証明書
+clientの中間認証局3~1の証明書が結合している(不順の証明書)
+serverの中間認証局2~1の証明書が結合している(不順の証明書)
+clientのCApathにはB側のroot証明書を指定
+serverのCApathにはA側のroot証明書を指定</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>歯抜け証明書
+clientの中間認証局3~1の証明書が結合している(歯抜け証明書)
+serverの中間認証局1の証明書が結合している(歯抜け証明書)
+clientのCApathにはB側の全ての証明書を指定
+serverのCApathにはA側の全ての証明書を指定</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1-6-7</t>
+  </si>
+  <si>
+    <t>1-6-8</t>
+  </si>
+  <si>
+    <t>1-6-9</t>
+  </si>
+  <si>
+    <t>client, server</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --once --tls_certificate_file test_dir/A/client/client.crt --tls_key_file test_dir/A/client/client.key --tls_certificate_chain_file test_dir/A/client/client_cat_all_without_end_entity.crt --tls_ca_certificate_path test_dir/B/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --once --tls_certificate_file test_dir/A/client/client.crt --tls_key_file test_dir/A/client/client.key --tls_certificate_chain_file test_dir/A/client/client_cat_all_without_end_entity_out_of_order.crt --tls_ca_certificate_path test_dir/B/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --once --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_ca_certificate_path test_dir/A/cacerts_root --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_ca_certificate_path test_dir/A/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --tls_certificate_file test_dir/A/client/client.crt --tls_certificate_chain_file test_dir/A/client/client_cat_all_without_end_entity_inter_ca_2.crt --tls_key_file test_dir/A/client/client.key --tls_ca_certificate_path test_dir/B/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --once --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_certificate_chain_file test_dir/B/server/server_cat_all_without_end_entity.crt --tls_ca_certificate_path test_dir/A/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --once --tls_certificate_file test_dir/A/client/client.crt --tls_key_file test_dir/A/client/client.key --tls_ca_certificate_path test_dir/B/cacerts_root --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --once --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_certificate_chain_file test_dir/B/server/server_cat_all_without_end_entity_out_of_order.crt --tls_ca_certificate_path test_dir/A/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --once --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_certificate_chain_file test_dir/B/server/server_cat_all_without_end_entity_inter_ca_2.crt --tls_ca_certificate_path test_dir/A/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --once --tls_certificate_file test_dir/A/client/client.crt --tls_key_file test_dir/A/client/client.key --tls_ca_certificate_path test_dir/B/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --once --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_certificate_chain_file test_dir/B/server/server_cat_all_without_end_entity.crt --tls_ca_certificate_path test_dir/A/cacerts_root --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --once --tls_certificate_file test_dir/A/client/client.crt --tls_key_file test_dir/A/client/client.key --tls_certificate_chain_file test_dir/A/client/client_cat_all_without_end_entity.crt --tls_ca_certificate_path test_dir/B/cacerts_root --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --once --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_certificate_chain_file test_dir/B/server/server_cat_all_without_end_entity_out_of_order.crt --tls_ca_certificate_path test_dir/A/cacerts_root --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --once --tls_certificate_file test_dir/A/client/client.crt --tls_key_file test_dir/A/client/client.key --tls_certificate_chain_file test_dir/A/client/client_cat_all_without_end_entity_out_of_order.crt --tls_ca_certificate_path test_dir/B/cacerts_root --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>server側-&gt;client側の順番で以下のコマンドを実行
+server側
+./tls-test -s --once --tls_certificate_file test_dir/B/server/server.crt --tls_key_file test_dir/B/server/server.key --tls_certificate_chain_file test_dir/B/server/cat_all_without_end_entity_inter_ca_2.crt --tls_ca_certificate_path test_dir/A/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client側
+./tls-test --once --tls_certificate_file test_dir/A/client/client.crt --tls_key_file test_dir/A/client/client.key --tls_certificate_chain_file test_dir/A/client/client_cat_all_without_end_entity_inter_ca_2.crt --tls_ca_certificate_path test_dir/B/cacerts_all --mutual_authentication --allow_no_crl --debug_level 1 --verify_only</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -14556,7 +15834,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -14579,6 +15857,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -14586,7 +15901,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -14603,20 +15918,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -14626,6 +15941,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15969,8 +17332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16048,10 +17411,10 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21:I22"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="14.25"/>
@@ -16100,371 +17463,417 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="102" customHeight="1">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="102" customHeight="1">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="102" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="102" customHeight="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="I7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="102" customHeight="1">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="102" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="102" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="102" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" ht="102" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10" ht="102" customHeight="1">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" s="6"/>
+      <c r="I13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:10" ht="102" customHeight="1">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:10" ht="102" customHeight="1">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="I15" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="2:10" ht="102" customHeight="1">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" ht="102" customHeight="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="I17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" ht="102" customHeight="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" ht="102" customHeight="1">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" s="6"/>
+      <c r="I19" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" ht="102" customHeight="1">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10" ht="102" customHeight="1">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J21" s="6"/>
+      <c r="I21" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" ht="102" customHeight="1">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B3:B22"/>
     <mergeCell ref="C3:C22"/>
     <mergeCell ref="D3:D4"/>
@@ -16481,52 +17890,6 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16539,10 +17902,10 @@
   <dimension ref="B1:J42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="14.25"/>
@@ -16597,725 +17960,823 @@
       <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="102" customHeight="1">
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="102" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="102" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="I7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="102" customHeight="1">
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="102" customHeight="1">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="102" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="102" customHeight="1">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" ht="102" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10" ht="102" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" s="6"/>
+      <c r="I13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:10" ht="102" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:10" ht="102" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="I15" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="2:10" ht="102" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" ht="102" customHeight="1">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="I17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" ht="102" customHeight="1">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" ht="102" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" s="6"/>
+      <c r="I19" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" ht="102" customHeight="1">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10" ht="102" customHeight="1">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J21" s="6"/>
+      <c r="I21" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" ht="102" customHeight="1">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+        <v>179</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10" ht="102" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J23" s="6"/>
+      <c r="I23" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" ht="102" customHeight="1">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" ht="102" customHeight="1">
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J25" s="6"/>
+      <c r="I25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" ht="102" customHeight="1">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:10" ht="102" customHeight="1">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J27" s="6"/>
+      <c r="I27" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:10" ht="102" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="2:10" ht="102" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="6"/>
+      <c r="I29" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:10" ht="102" customHeight="1">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="2:10" ht="102" customHeight="1">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J31" s="6"/>
+      <c r="I31" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:10" ht="102" customHeight="1">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:10" ht="102" customHeight="1">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J33" s="6"/>
+      <c r="I33" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="2:10" ht="102" customHeight="1">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="2:10" ht="102" customHeight="1">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J35" s="6"/>
+      <c r="I35" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="2:10" ht="102" customHeight="1">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="2:10" ht="102" customHeight="1">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J37" s="6"/>
+      <c r="I37" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:10" ht="102" customHeight="1">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+        <v>190</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" ht="102" customHeight="1">
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J39" s="6"/>
+      <c r="I39" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="2:10" ht="102" customHeight="1">
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="102" customHeight="1">
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H41" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" s="6"/>
+      <c r="I41" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="2:10" ht="102" customHeight="1">
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+        <v>187</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="B3:B42"/>
     <mergeCell ref="C3:C42"/>
     <mergeCell ref="D3:D4"/>
@@ -17340,104 +18801,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -17453,7 +18816,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="14.25"/>
@@ -17508,725 +18871,823 @@
       <c r="C3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="102" customHeight="1">
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+        <v>194</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="102" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="102" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="102" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="I7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="102" customHeight="1">
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>196</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="102" customHeight="1">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="102" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="102" customHeight="1">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" ht="102" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10" ht="102" customHeight="1">
       <c r="B13" s="11"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" s="6"/>
+      <c r="I13" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:10" ht="102" customHeight="1">
       <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:10" ht="102" customHeight="1">
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J15" s="6"/>
+      <c r="I15" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="2:10" ht="102" customHeight="1">
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" ht="102" customHeight="1">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="I17" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" ht="102" customHeight="1">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>203</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" ht="102" customHeight="1">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J19" s="6"/>
+      <c r="I19" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" ht="102" customHeight="1">
       <c r="B20" s="11"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="6"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>205</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10" ht="102" customHeight="1">
       <c r="B21" s="11"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J21" s="6"/>
+      <c r="I21" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" ht="102" customHeight="1">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10" ht="102" customHeight="1">
       <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J23" s="6"/>
+      <c r="I23" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" ht="102" customHeight="1">
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" ht="102" customHeight="1">
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J25" s="6"/>
+      <c r="I25" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" ht="102" customHeight="1">
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
       <c r="G26" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:10" ht="102" customHeight="1">
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J27" s="6"/>
+      <c r="I27" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:10" ht="102" customHeight="1">
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="6"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
       <c r="G28" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="2:10" ht="102" customHeight="1">
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J29" s="6"/>
+      <c r="I29" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="2:10" ht="102" customHeight="1">
       <c r="B30" s="11"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="2:10" ht="102" customHeight="1">
       <c r="B31" s="11"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="H31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J31" s="6"/>
+      <c r="I31" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="2:10" ht="102" customHeight="1">
       <c r="B32" s="11"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="2:10" ht="102" customHeight="1">
       <c r="B33" s="11"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J33" s="6"/>
+      <c r="I33" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="2:10" ht="102" customHeight="1">
       <c r="B34" s="11"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="2:10" ht="102" customHeight="1">
       <c r="B35" s="11"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H35" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J35" s="6"/>
+      <c r="I35" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="2:10" ht="102" customHeight="1">
       <c r="B36" s="11"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="6"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="H36" s="10"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
     </row>
     <row r="37" spans="2:10" ht="102" customHeight="1">
       <c r="B37" s="11"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J37" s="6"/>
+      <c r="I37" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="2:10" ht="102" customHeight="1">
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H38" s="7"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
+        <v>217</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="2:10" ht="102" customHeight="1">
       <c r="B39" s="11"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J39" s="6"/>
+      <c r="I39" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="2:10" ht="102" customHeight="1">
       <c r="B40" s="11"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="6"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="H40" s="10"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
     </row>
     <row r="41" spans="2:10" ht="102" customHeight="1">
       <c r="B41" s="11"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H41" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J41" s="6"/>
+      <c r="I41" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="2:10" ht="102" customHeight="1">
       <c r="B42" s="11"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
+        <v>214</v>
+      </c>
+      <c r="H42" s="10"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="B3:B42"/>
     <mergeCell ref="C3:C42"/>
     <mergeCell ref="D3:D4"/>
@@ -18251,104 +19712,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18361,10 +19724,10 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="14.25"/>
@@ -18413,191 +19776,209 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H7" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="I7" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>224</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>226</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="I11" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" ht="99.95" customHeight="1">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="D3:D4"/>
@@ -18609,27 +19990,9 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -18641,11 +20004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3:I4"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="14.25"/>
@@ -18700,185 +20063,203 @@
       <c r="C3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
+      <c r="F3" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="6"/>
+      <c r="I3" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" ht="99.95" customHeight="1">
       <c r="B4" s="11"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
       <c r="G4" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" ht="99.95" customHeight="1">
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" s="6"/>
+      <c r="I5" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" ht="99.95" customHeight="1">
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" ht="99.95" customHeight="1">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J7" s="6"/>
+      <c r="I7" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" ht="99.95" customHeight="1">
       <c r="B8" s="11"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" ht="99.95" customHeight="1">
       <c r="B9" s="11"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J9" s="6"/>
+      <c r="I9" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" ht="99.95" customHeight="1">
       <c r="B10" s="11"/>
       <c r="C10" s="12"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>233</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="99.95" customHeight="1">
       <c r="B11" s="11"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" ht="99.95" customHeight="1">
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>229</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="D3:D4"/>
@@ -18890,30 +20271,477 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.25" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="86.25" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18.75">
+      <c r="B1" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="18.75">
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" s="14" customFormat="1" ht="93.75">
+      <c r="B3" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="2:10" s="14" customFormat="1" ht="93.75">
+      <c r="B4" s="24"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="2:10" ht="93.75">
+      <c r="B5" s="25"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="2:10" ht="93.75">
+      <c r="B6" s="25"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="2:10" ht="93.75">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="93.75">
+      <c r="B8" s="25"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:10" ht="112.5">
+      <c r="B9" s="25"/>
+      <c r="C9" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10" ht="75">
+      <c r="B10" s="25"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10" ht="112.5">
+      <c r="B11" s="25"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:10" ht="75">
+      <c r="B12" s="25"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:10" ht="112.5">
+      <c r="B13" s="25"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="75">
+      <c r="B14" s="25"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:10" ht="112.5">
+      <c r="B15" s="25"/>
+      <c r="C15" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="2:10" ht="93.75">
+      <c r="B16" s="25"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="2:10" ht="112.5">
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="2:10" ht="93.75">
+      <c r="B18" s="25"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="2:10" ht="112.5">
+      <c r="B19" s="25"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="93.75">
+      <c r="B20" s="26"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>